--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="632" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Next" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
   <si>
     <t>Index</t>
   </si>
@@ -271,6 +271,171 @@
   </si>
   <si>
     <t>Select &lt;s1, s2, s3&gt; such that Next*(s1, s2) and Next*(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select a1 such that Affects(a1, a2)</t>
+  </si>
+  <si>
+    <t>assign a1,a2;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5,a6;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5,a6,a7;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5,a6,a7,a8;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5,a6,a7,a8,a9;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5,a6,a7,a8,a9,a10;</t>
+  </si>
+  <si>
+    <t>assign a1,a2,a3,a4,a5,a6,a7,a8,a9,a10,a11;</t>
+  </si>
+  <si>
+    <t>1Assign</t>
+  </si>
+  <si>
+    <t>2Assign</t>
+  </si>
+  <si>
+    <t>3Assign</t>
+  </si>
+  <si>
+    <t>4Assign</t>
+  </si>
+  <si>
+    <t>5Assign</t>
+  </si>
+  <si>
+    <t>6Assign</t>
+  </si>
+  <si>
+    <t>7Assign</t>
+  </si>
+  <si>
+    <t>8Assign</t>
+  </si>
+  <si>
+    <t>9Assign</t>
+  </si>
+  <si>
+    <t>10Assign</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2&gt; such that Affects(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3&gt; such that Affects(a1,a2) and Affects(a2, a3)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4, a5&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4, a5)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4, a5, a6&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4, a5) and Affects(a5, a6)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4, a5, a6, a7&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4, a5) and Affects(a5, a6) and Affects(a6, a7)</t>
+  </si>
+  <si>
+    <t>Select a2 such that Affects(a1, a2) and Affects(a2, a3)</t>
+  </si>
+  <si>
+    <t>Select a3 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4)</t>
+  </si>
+  <si>
+    <t>Select a4 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5)</t>
+  </si>
+  <si>
+    <t>Select a5 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5) and Affects(a5, a6)</t>
+  </si>
+  <si>
+    <t>Select a6 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5) and Affects(a5, a6) and Affects(a6, a7)</t>
+  </si>
+  <si>
+    <t>Select a7 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7, a8)</t>
+  </si>
+  <si>
+    <t>Select a8 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7, a8) and Affects(a8, a9)</t>
+  </si>
+  <si>
+    <t>Select a9 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7, a8) and Affects(a8, a9) and Affects(a9, a10)</t>
+  </si>
+  <si>
+    <t>Select a10 such that Affects(a1, a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4,a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7, a8) and Affects(a8, a9) and Affects(a9, a10) and Affects(a10,a11)</t>
+  </si>
+  <si>
+    <t>assign a1, a2;</t>
+  </si>
+  <si>
+    <t>Select a1 such that Affects*(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select a2 such that Affects*(a1, a2) and Affects*(a2, a3)</t>
+  </si>
+  <si>
+    <t>Select a3 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3&gt; such that Affects*(a1, a2) and Affects*(a2, a3)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1,a2&gt; such that Affects*(a1, a2)</t>
+  </si>
+  <si>
+    <t>1AffectsStar</t>
+  </si>
+  <si>
+    <t>2AffectsStar</t>
+  </si>
+  <si>
+    <t>3AffectsStar</t>
+  </si>
+  <si>
+    <t>Select &lt;a1,a2,a3,a4&gt; such that Affects*(a1, a2) and Affects*(a2,a3) and Affects*(a3,a4)</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 7, 8, 11, 12, 13, 14, 17, 25, 27, 28, 29, 30, 32, 38, 46, 47, 51, 52, 53, 54, 56, 57, 58, 59, 60, 61, 62, 63, 65, 67, 68, 71, 73, 74, 75, 82, 83, 85, 86, 87, 89, 91, 92, 95, 96, 97, 99, 103, 104, 106, 107, 108, 113, 116, 117, 118, 121, 122, 124, 125, 127, 128, 131, 134, 135, 136, 140, 141, 143, 144, 145, 147, 149, 150, 151, 153, 154, 156, 157, 158, 164, 165, 167, 189, 199, 217, 224, 225, 228, 230, 239, 242, 246, 250, 256, 260, 263, 266, 269</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 7, 8, 12, 14, 17, 27, 30, 32, 46, 47, 52, 54, 56, 57, 59, 60, 61, 62, 63, 65, 67, 68, 75, 83, 85, 86, 87, 89, 91, 92, 95, 96, 97, 99, 107, 108, 113, 116, 117, 118, 121, 122, 124, 125, 127, 128, 131, 136, 140, 143, 144, 145, 147, 150, 151, 153, 154, 156, 158, 167, 246, 263</t>
+  </si>
+  <si>
+    <t>3, 7, 17, 30, 32, 46, 47, 54, 56, 57, 59, 60, 61, 62, 63, 65, 67, 68, 83, 85, 86, 87, 89, 91, 92, 95, 96, 97, 99, 108, 113, 116, 117, 118, 121, 122, 124, 125, 127, 128, 131, 143, 144, 145, 147, 151, 153, 154, 156, 158</t>
+  </si>
+  <si>
+    <t>7, 32, 46, 47, 54, 56, 57, 59, 60, 62, 63, 65, 67, 68, 83, 85, 86, 87, 89, 91, 92, 95, 96, 97, 99, 113, 116, 117, 118, 121, 122, 124, 125, 127, 128, 131, 143, 144, 145, 153, 154, 156, 158</t>
+  </si>
+  <si>
+    <t>46, 47, 54, 56, 57, 59, 60, 62, 63, 65, 67, 68, 83, 85, 86, 87, 89, 91, 92, 95, 96, 97, 99, 113, 116, 117, 118, 121, 122, 124, 125, 127, 128, 131, 143, 144, 145, 153, 154, 156, 158</t>
+  </si>
+  <si>
+    <t>1 2,1 4,1 7,1 8,1 9,103 100,103 83,103 93,104 107,106 108,106 113,106 118,106 119,106 128,106 132,107 108,107 113,107 116,107 117,107 119,107 121,107 124,107 128,107 129,107 131,107 132,108 113,108 125,108 132,11 12,113 114,116 113,116 118,116 119,116 128,116 132,117 113,117 125,117 132,118 119,12 20,121 113,121 118,121 122,121 125,121 127,122 124,124 125,124 127,125 122,125 128,127 122,128 113,128 116,128 117,128 119,128 121,128 124,128 128,128 129,128 131,128 132,13 14,13 17,131 113,131 125,131 132,134 140,135 136,135 137,136 137,14 17,14 18,14 35,14 36,140 147,141 143,143 144,144 143,144 145,145 143,147 148,149 150,150 151,150 153,150 154,150 159,151 153,151 159,153 156,154 154,154 156,154 158,156 153,156 158,156 159,157 156,157 158,158 153,158 154,158 159,164 167,165 167,167 168,17 18,17 20,189 190,199 201,199 205,199 209,199 210,2 3,217 223,224 226,225 226,228 229,230 233,239 241,242 246,246 247,25 27,250 253,250 255,256 259,260 263,260 265,263 265,266 268,269 271,27 30,27 31,27 32,27 34,28 30,28 31,28 34,29 31,29 32,29 33,29 34,3 7,30 31,30 32,30 33,30 34,32 33,38 39,4 7,46 47,46 67,46 68,47 46,47 54,47 67,47 68,47 69,5 6,5 9,51 52,52 61,52 68,53 62,54 56,54 57,54 60,56 59,57 62,57 63,57 65,57 68,58 46,58 54,58 61,58 67,58 68,58 69,59 60,60 67,60 68,61 62,62 46,62 47,62 56,62 57,62 60,62 63,62 67,62 68,62 69,63 46,63 47,63 62,63 68,63 69,65 66,67 62,67 63,67 65,67 68,68 69,7 9,71 100,71 72,71 83,71 85,71 91,71 92,73 100,73 85,73 87,73 97,74 75,74 86,74 89,74 90,74 92,74 95,74 99,75 100,75 83,75 93,8 9,82 100,82 83,82 93,83 85,83 86,85 87,86 80,86 83,86 86,86 89,86 90,86 92,87 80,87 89,89 91,89 99,91 100,92 93,92 95,92 96,92 97,92 99,95 100,96 95,97 99,99 100</t>
+  </si>
+  <si>
+    <t>1 2 3,1 4 7,1 7 9,1 8 9,103 83 85,103 83 86,104 107 108,104 107 113,104 107 116,104 107 117,104 107 119,104 107 121,104 107 124,104 107 128,104 107 129,104 107 131,104 107 132,106 108 113,106 108 125,106 108 132,106 113 114,106 118 119,106 128 113,106 128 116,106 128 117,106 128 119,106 128 121,106 128 124,106 128 128,106 128 129,106 128 131,106 128 132,107 108 113,107 108 125,107 108 132,107 113 114,107 116 113,107 116 118,107 116 119,107 116 128,107 116 132,107 117 113,107 117 125,107 117 132,107 121 113,107 121 118,107 121 122,107 121 125,107 121 127,107 124 125,107 124 127,107 128 113,107 128 116,107 128 117,107 128 119,107 128 121,107 128 124,107 128 128,107 128 129,107 128 131,107 128 132,107 131 113,107 131 125,107 131 132,108 113 114,108 125 122,108 125 128,11 12 20,116 113 114,116 118 119,116 128 113,116 128 116,116 128 117,116 128 119,116 128 121,116 128 124,116 128 128,116 128 129,116 128 131,116 128 132,117 113 114,117 125 122,117 125 128,121 113 114,121 118 119,121 122 124,121 125 122,121 125 128,121 127 122,122 124 125,122 124 127,124 125 122,124 125 128,124 127 122,125 122 124,125 128 113,125 128 116,125 128 117,125 128 119,125 128 121,125 128 124,125 128 128,125 128 129,125 128 131,125 128 132,127 122 124,128 113 114,128 116 113,128 116 118,128 116 119,128 116 128,128 116 132,128 117 113,128 117 125,128 117 132,128 121 113,128 121 118,128 121 122,128 121 125,128 121 127,128 124 125,128 124 127,128 128 113,128 128 116,128 128 117,128 128 119,128 128 121,128 128 124,128 128 128,128 128 129,128 128 131,128 128 132,128 131 113,128 131 125,128 131 132,13 14 17,13 14 18,13 14 35,13 14 36,13 17 18,13 17 20,131 113 114,131 125 122,131 125 128,134 140 147,135 136 137,14 17 18,14 17 20,140 147 148,141 143 144,143 144 143,143 144 145,144 143 144,144 145 143,145 143 144,149 150 151,149 150 153,149 150 154,149 150 159,150 151 153,150 151 159,150 153 156,150 154 154,150 154 156,150 154 158,151 153 156,153 156 153,153 156 158,153 156 159,154 154 154,154 154 156,154 154 158,154 156 153,154 156 158,154 156 159,154 158 153,154 158 154,154 158 159,156 153 156,156 158 153,156 158 154,156 158 159,157 156 153,157 156 158,157 156 159,157 158 153,157 158 154,157 158 159,158 153 156,158 154 154,158 154 156,158 154 158,164 167 168,165 167 168,2 3 7,242 246 247,25 27 30,25 27 31,25 27 32,25 27 34,260 263 265,27 30 31,27 30 32,27 30 33,27 30 34,27 32 33,28 30 31,28 30 32,28 30 33,28 30 34,29 32 33,3 7 9,30 32 33,4 7 9,46 47 46,46 47 54,46 47 67,46 47 68,46 47 69,46 67 62,46 67 63,46 67 65,46 67 68,46 68 69,47 46 47,47 46 67,47 46 68,47 54 56,47 54 57,47 54 60,47 67 62,47 67 63,47 67 65,47 67 68,47 68 69,51 52 61,51 52 68,52 61 62,52 68 69,53 62 46,53 62 47,53 62 56,53 62 57,53 62 60,53 62 63,53 62 67,53 62 68,53 62 69,54 56 59,54 57 62,54 57 63,54 57 65,54 57 68,54 60 67,54 60 68,56 59 60,57 62 46,57 62 47,57 62 56,57 62 57,57 62 60,57 62 63,57 62 67,57 62 68,57 62 69,57 63 46,57 63 47,57 63 62,57 63 68,57 63 69,57 65 66,57 68 69,58 46 47,58 46 67,58 46 68,58 54 56,58 54 57,58 54 60,58 61 62,58 67 62,58 67 63,58 67 65,58 67 68,58 68 69,59 60 67,59 60 68,60 67 62,60 67 63,60 67 65,60 67 68,60 68 69,61 62 46,61 62 47,61 62 56,61 62 57,61 62 60,61 62 63,61 62 67,61 62 68,61 62 69,62 46 47,62 46 67,62 46 68,62 47 46,62 47 54,62 47 67,62 47 68,62 47 69,62 56 59,62 57 62,62 57 63,62 57 65,62 57 68,62 60 67,62 60 68,62 63 46,62 63 47,62 63 62,62 63 68,62 63 69,62 67 62,62 67 63,62 67 65,62 67 68,62 68 69,63 46 47,63 46 67,63 46 68,63 47 46,63 47 54,63 47 67,63 47 68,63 47 69,63 62 46,63 62 47,63 62 56,63 62 57,63 62 60,63 62 63,63 62 67,63 62 68,63 62 69,63 68 69,67 62 46,67 62 47,67 62 56,67 62 57,67 62 60,67 62 63,67 62 67,67 62 68,67 62 69,67 63 46,67 63 47,67 63 62,67 63 68,67 63 69,67 65 66,67 68 69,71 83 85,71 83 86,71 85 87,71 91 100,71 92 93,71 92 95,71 92 96,71 92 97,71 92 99,73 85 87,73 87 80,73 87 89,73 97 99,74 75 100,74 75 83,74 75 93,74 86 80,74 86 83,74 86 86,74 86 89,74 86 90,74 86 92,74 89 91,74 89 99,74 92 93,74 92 95,74 92 96,74 92 97,74 92 99,74 95 100,74 99 100,75 83 85,75 83 86,82 83 85,82 83 86,83 85 87,83 86 80,83 86 83,83 86 86,83 86 89,83 86 90,83 86 92,85 87 80,85 87 89,86 83 85,86 83 86,86 86 80,86 86 83,86 86 86,86 86 89,86 86 90,86 86 92,86 89 91,86 89 99,86 92 93,86 92 95,86 92 96,86 92 97,86 92 99,87 89 91,87 89 99,89 91 100,89 99 100,92 95 100,92 96 95,92 97 99,92 99 100,96 95 100,97 99 100</t>
+  </si>
+  <si>
+    <t>1 2 3 7,1 4 7 9,103 83 85 87,103 83 86 80,103 83 86 83,103 83 86 86,103 83 86 89,103 83 86 90,103 83 86 92,104 107 108 113,104 107 108 125,104 107 108 132,104 107 113 114,104 107 116 113,104 107 116 118,104 107 116 119,104 107 116 128,104 107 116 132,104 107 117 113,104 107 117 125,104 107 117 132,104 107 121 113,104 107 121 118,104 107 121 122,104 107 121 125,104 107 121 127,104 107 124 125,104 107 124 127,104 107 128 113,104 107 128 116,104 107 128 117,104 107 128 119,104 107 128 121,104 107 128 124,104 107 128 128,104 107 128 129,104 107 128 131,104 107 128 132,104 107 131 113,104 107 131 125,104 107 131 132,106 108 113 114,106 108 125 122,106 108 125 128,106 128 113 114,106 128 116 113,106 128 116 118,106 128 116 119,106 128 116 128,106 128 116 132,106 128 117 113,106 128 117 125,106 128 117 132,106 128 121 113,106 128 121 118,106 128 121 122,106 128 121 125,106 128 121 127,106 128 124 125,106 128 124 127,106 128 128 113,106 128 128 116,106 128 128 117,106 128 128 119,106 128 128 121,106 128 128 124,106 128 128 128,106 128 128 129,106 128 128 131,106 128 128 132,106 128 131 113,106 128 131 125,106 128 131 132,107 108 113 114,107 108 125 122,107 108 125 128,107 116 113 114,107 116 118 119,107 116 128 113,107 116 128 116,107 116 128 117,107 116 128 119,107 116 128 121,107 116 128 124,107 116 128 128,107 116 128 129,107 116 128 131,107 116 128 132,107 117 113 114,107 117 125 122,107 117 125 128,107 121 113 114,107 121 118 119,107 121 122 124,107 121 125 122,107 121 125 128,107 121 127 122,107 124 125 122,107 124 125 128,107 124 127 122,107 128 113 114,107 128 116 113,107 128 116 118,107 128 116 119,107 128 116 128,107 128 116 132,107 128 117 113,107 128 117 125,107 128 117 132,107 128 121 113,107 128 121 118,107 128 121 122,107 128 121 125,107 128 121 127,107 128 124 125,107 128 124 127,107 128 128 113,107 128 128 116,107 128 128 117,107 128 128 119,107 128 128 121,107 128 128 124,107 128 128 128,107 128 128 129,107 128 128 131,107 128 128 132,107 128 131 113,107 128 131 125,107 128 131 132,107 131 113 114,107 131 125 122,107 131 125 128,108 125 122 124,108 125 128 113,108 125 128 116,108 125 128 117,108 125 128 119,108 125 128 121,108 125 128 124,108 125 128 128,108 125 128 129,108 125 128 131,108 125 128 132,116 128 113 114,116 128 116 113,116 128 116 118,116 128 116 119,116 128 116 128,116 128 116 132,116 128 117 113,116 128 117 125,116 128 117 132,116 128 121 113,116 128 121 118,116 128 121 122,116 128 121 125,116 128 121 127,116 128 124 125,116 128 124 127,116 128 128 113,116 128 128 116,116 128 128 117,116 128 128 119,116 128 128 121,116 128 128 124,116 128 128 128,116 128 128 129,116 128 128 131,116 128 128 132,116 128 131 113,116 128 131 125,116 128 131 132,117 125 122 124,117 125 128 113,117 125 128 116,117 125 128 117,117 125 128 119,117 125 128 121,117 125 128 124,117 125 128 128,117 125 128 129,117 125 128 131,117 125 128 132,121 122 124 125,121 122 124 127,121 125 122 124,121 125 128 113,121 125 128 116,121 125 128 117,121 125 128 119,121 125 128 121,121 125 128 124,121 125 128 128,121 125 128 129,121 125 128 131,121 125 128 132,121 127 122 124,122 124 125 122,122 124 125 128,122 124 127 122,124 125 122 124,124 125 128 113,124 125 128 116,124 125 128 117,124 125 128 119,124 125 128 121,124 125 128 124,124 125 128 128,124 125 128 129,124 125 128 131,124 125 128 132,124 127 122 124,125 122 124 125,125 122 124 127,125 128 113 114,125 128 116 113,125 128 116 118,125 128 116 119,125 128 116 128,125 128 116 132,125 128 117 113,125 128 117 125,125 128 117 132,125 128 121 113,125 128 121 118,125 128 121 122,125 128 121 125,125 128 121 127,125 128 124 125,125 128 124 127,125 128 128 113,125 128 128 116,125 128 128 117,125 128 128 119,125 128 128 121,125 128 128 124,125 128 128 128,125 128 128 129,125 128 128 131,125 128 128 132,125 128 131 113,125 128 131 125,125 128 131 132,127 122 124 125,127 122 124 127,128 116 113 114,128 116 118 119,128 116 128 113,128 116 128 116,128 116 128 117,128 116 128 119,128 116 128 121,128 116 128 124,128 116 128 128,128 116 128 129,128 116 128 131,128 116 128 132,128 117 113 114,128 117 125 122,128 117 125 128,128 121 113 114,128 121 118 119,128 121 122 124,128 121 125 122,128 121 125 128,128 121 127 122,128 124 125 122,128 124 125 128,128 124 127 122,128 128 113 114,128 128 116 113,128 128 116 118,128 128 116 119,128 128 116 128,128 128 116 132,128 128 117 113,128 128 117 125,128 128 117 132,128 128 121 113,128 128 121 118,128 128 121 122,128 128 121 125,128 128 121 127,128 128 124 125,128 128 124 127,128 128 128 113,128 128 128 116,128 128 128 117,128 128 128 119,128 128 128 121,128 128 128 124,128 128 128 128,128 128 128 129,128 128 128 131,128 128 128 132,128 128 131 113,128 128 131 125,128 128 131 132,128 131 113 114,128 131 125 122,128 131 125 128,13 14 17 18,13 14 17 20,131 125 122 124,131 125 128 113,131 125 128 116,131 125 128 117,131 125 128 119,131 125 128 121,131 125 128 124,131 125 128 128,131 125 128 129,131 125 128 131,131 125 128 132,134 140 147 148,141 143 144 143,141 143 144 145,143 144 143 144,143 144 145 143,144 143 144 143,144 143 144 145,144 145 143 144,145 143 144 143,145 143 144 145,149 150 151 153,149 150 151 159,149 150 153 156,149 150 154 154,149 150 154 156,149 150 154 158,150 151 153 156,150 153 156 153,150 153 156 158,150 153 156 159,150 154 154 154,150 154 154 156,150 154 154 158,150 154 156 153,150 154 156 158,150 154 156 159,150 154 158 153,150 154 158 154,150 154 158 159,151 153 156 153,151 153 156 158,151 153 156 159,153 156 153 156,153 156 158 153,153 156 158 154,153 156 158 159,154 154 154 154,154 154 154 156,154 154 154 158,154 154 156 153,154 154 156 158,154 154 156 159,154 154 158 153,154 154 158 154,154 154 158 159,154 156 153 156,154 156 158 153,154 156 158 154,154 156 158 159,154 158 153 156,154 158 154 154,154 158 154 156,154 158 154 158,156 153 156 153,156 153 156 158,156 153 156 159,156 158 153 156,156 158 154 154,156 158 154 156,156 158 154 158,157 156 153 156,157 156 158 153,157 156 158 154,157 156 158 159,157 158 153 156,157 158 154 154,157 158 154 156,157 158 154 158,158 153 156 153,158 153 156 158,158 153 156 159,158 154 154 154,158 154 154 156,158 154 154 158,158 154 156 153,158 154 156 158,158 154 156 159,158 154 158 153,158 154 158 154,158 154 158 159,2 3 7 9,25 27 30 31,25 27 30 32,25 27 30 33,25 27 30 34,25 27 32 33,27 30 32 33,28 30 32 33,46 47 46 47,46 47 46 67,46 47 46 68,46 47 54 56,46 47 54 57,46 47 54 60,46 47 67 62,46 47 67 63,46 47 67 65,46 47 67 68,46 47 68 69,46 67 62 46,46 67 62 47,46 67 62 56,46 67 62 57,46 67 62 60,46 67 62 63,46 67 62 67,46 67 62 68,46 67 62 69,46 67 63 46,46 67 63 47,46 67 63 62,46 67 63 68,46 67 63 69,46 67 65 66,46 67 68 69,47 46 47 46,47 46 47 54,47 46 47 67,47 46 47 68,47 46 47 69,47 46 67 62,47 46 67 63,47 46 67 65,47 46 67 68,47 46 68 69,47 54 56 59,47 54 57 62,47 54 57 63,47 54 57 65,47 54 57 68,47 54 60 67,47 54 60 68,47 67 62 46,47 67 62 47,47 67 62 56,47 67 62 57,47 67 62 60,47 67 62 63,47 67 62 67,47 67 62 68,47 67 62 69,47 67 63 46,47 67 63 47,47 67 63 62,47 67 63 68,47 67 63 69,47 67 65 66,47 67 68 69,51 52 61 62,51 52 68 69,52 61 62 46,52 61 62 47,52 61 62 56,52 61 62 57,52 61 62 60,52 61 62 63,52 61 62 67,52 61 62 68,52 61 62 69,53 62 46 47,53 62 46 67,53 62 46 68,53 62 47 46,53 62 47 54,53 62 47 67,53 62 47 68,53 62 47 69,53 62 56 59,53 62 57 62,53 62 57 63,53 62 57 65,53 62 57 68,53 62 60 67,53 62 60 68,53 62 63 46,53 62 63 47,53 62 63 62,53 62 63 68,53 62 63 69,53 62 67 62,53 62 67 63,53 62 67 65,53 62 67 68,53 62 68 69,54 56 59 60,54 57 62 46,54 57 62 47,54 57 62 56,54 57 62 57,54 57 62 60,54 57 62 63,54 57 62 67,54 57 62 68,54 57 62 69,54 57 63 46,54 57 63 47,54 57 63 62,54 57 63 68,54 57 63 69,54 57 65 66,54 57 68 69,54 60 67 62,54 60 67 63,54 60 67 65,54 60 67 68,54 60 68 69,56 59 60 67,56 59 60 68,57 62 46 47,57 62 46 67,57 62 46 68,57 62 47 46,57 62 47 54,57 62 47 67,57 62 47 68,57 62 47 69,57 62 56 59,57 62 57 62,57 62 57 63,57 62 57 65,57 62 57 68,57 62 60 67,57 62 60 68,57 62 63 46,57 62 63 47,57 62 63 62,57 62 63 68,57 62 63 69,57 62 67 62,57 62 67 63,57 62 67 65,57 62 67 68,57 62 68 69,57 63 46 47,57 63 46 67,57 63 46 68,57 63 47 46,57 63 47 54,57 63 47 67,57 63 47 68,57 63 47 69,57 63 62 46,57 63 62 47,57 63 62 56,57 63 62 57,57 63 62 60,57 63 62 63,57 63 62 67,57 63 62 68,57 63 62 69,57 63 68 69,58 46 47 46,58 46 47 54,58 46 47 67,58 46 47 68,58 46 47 69,58 46 67 62,58 46 67 63,58 46 67 65,58 46 67 68,58 46 68 69,58 54 56 59,58 54 57 62,58 54 57 63,58 54 57 65,58 54 57 68,58 54 60 67,58 54 60 68,58 61 62 46,58 61 62 47,58 61 62 56,58 61 62 57,58 61 62 60,58 61 62 63,58 61 62 67,58 61 62 68,58 61 62 69,58 67 62 46,58 67 62 47,58 67 62 56,58 67 62 57,58 67 62 60,58 67 62 63,58 67 62 67,58 67 62 68,58 67 62 69,58 67 63 46,58 67 63 47,58 67 63 62,58 67 63 68,58 67 63 69,58 67 65 66,58 67 68 69,59 60 67 62,59 60 67 63,59 60 67 65,59 60 67 68,59 60 68 69,60 67 62 46,60 67 62 47,60 67 62 56,60 67 62 57,60 67 62 60,60 67 62 63,60 67 62 67,60 67 62 68,60 67 62 69,60 67 63 46,60 67 63 47,60 67 63 62,60 67 63 68,60 67 63 69,60 67 65 66,60 67 68 69,61 62 46 47,61 62 46 67,61 62 46 68,61 62 47 46,61 62 47 54,61 62 47 67,61 62 47 68,61 62 47 69,61 62 56 59,61 62 57 62,61 62 57 63,61 62 57 65,61 62 57 68,61 62 60 67,61 62 60 68,61 62 63 46,61 62 63 47,61 62 63 62,61 62 63 68,61 62 63 69,61 62 67 62,61 62 67 63,61 62 67 65,61 62 67 68,61 62 68 69,62 46 47 46,62 46 47 54,62 46 47 67,62 46 47 68,62 46 47 69,62 46 67 62,62 46 67 63,62 46 67 65,62 46 67 68,62 46 68 69,62 47 46 47,62 47 46 67,62 47 46 68,62 47 54 56,62 47 54 57,62 47 54 60,62 47 67 62,62 47 67 63,62 47 67 65,62 47 67 68,62 47 68 69,62 56 59 60,62 57 62 46,62 57 62 47,62 57 62 56,62 57 62 57,62 57 62 60,62 57 62 63,62 57 62 67,62 57 62 68,62 57 62 69,62 57 63 46,62 57 63 47,62 57 63 62,62 57 63 68,62 57 63 69,62 57 65 66,62 57 68 69,62 60 67 62,62 60 67 63,62 60 67 65,62 60 67 68,62 60 68 69,62 63 46 47,62 63 46 67,62 63 46 68,62 63 47 46,62 63 47 54,62 63 47 67,62 63 47 68,62 63 47 69,62 63 62 46,62 63 62 47,62 63 62 56,62 63 62 57,62 63 62 60,62 63 62 63,62 63 62 67,62 63 62 68,62 63 62 69,62 63 68 69,62 67 62 46,62 67 62 47,62 67 62 56,62 67 62 57,62 67 62 60,62 67 62 63,62 67 62 67,62 67 62 68,62 67 62 69,62 67 63 46,62 67 63 47,62 67 63 62,62 67 63 68,62 67 63 69,62 67 65 66,62 67 68 69,63 46 47 46,63 46 47 54,63 46 47 67,63 46 47 68,63 46 47 69,63 46 67 62,63 46 67 63,63 46 67 65,63 46 67 68,63 46 68 69,63 47 46 47,63 47 46 67,63 47 46 68,63 47 54 56,63 47 54 57,63 47 54 60,63 47 67 62,63 47 67 63,63 47 67 65,63 47 67 68,63 47 68 69,63 62 46 47,63 62 46 67,63 62 46 68,63 62 47 46,63 62 47 54,63 62 47 67,63 62 47 68,63 62 47 69,63 62 56 59,63 62 57 62,63 62 57 63,63 62 57 65,63 62 57 68,63 62 60 67,63 62 60 68,63 62 63 46,63 62 63 47,63 62 63 62,63 62 63 68,63 62 63 69,63 62 67 62,63 62 67 63,63 62 67 65,63 62 67 68,63 62 68 69,67 62 46 47,67 62 46 67,67 62 46 68,67 62 47 46,67 62 47 54,67 62 47 67,67 62 47 68,67 62 47 69,67 62 56 59,67 62 57 62,67 62 57 63,67 62 57 65,67 62 57 68,67 62 60 67,67 62 60 68,67 62 63 46,67 62 63 47,67 62 63 62,67 62 63 68,67 62 63 69,67 62 67 62,67 62 67 63,67 62 67 65,67 62 67 68,67 62 68 69,67 63 46 47,67 63 46 67,67 63 46 68,67 63 47 46,67 63 47 54,67 63 47 67,67 63 47 68,67 63 47 69,67 63 62 46,67 63 62 47,67 63 62 56,67 63 62 57,67 63 62 60,67 63 62 63,67 63 62 67,67 63 62 68,67 63 62 69,67 63 68 69,71 83 85 87,71 83 86 80,71 83 86 83,71 83 86 86,71 83 86 89,71 83 86 90,71 83 86 92,71 85 87 80,71 85 87 89,71 92 95 100,71 92 96 95,71 92 97 99,71 92 99 100,73 85 87 80,73 85 87 89,73 87 89 91,73 87 89 99,73 97 99 100,74 75 83 85,74 75 83 86,74 86 83 85,74 86 83 86,74 86 86 80,74 86 86 83,74 86 86 86,74 86 86 89,74 86 86 90,74 86 86 92,74 86 89 91,74 86 89 99,74 86 92 93,74 86 92 95,74 86 92 96,74 86 92 97,74 86 92 99,74 89 91 100,74 89 99 100,74 92 95 100,74 92 96 95,74 92 97 99,74 92 99 100,75 83 85 87,75 83 86 80,75 83 86 83,75 83 86 86,75 83 86 89,75 83 86 90,75 83 86 92,82 83 85 87,82 83 86 80,82 83 86 83,82 83 86 86,82 83 86 89,82 83 86 90,82 83 86 92,83 85 87 80,83 85 87 89,83 86 83 85,83 86 83 86,83 86 86 80,83 86 86 83,83 86 86 86,83 86 86 89,83 86 86 90,83 86 86 92,83 86 89 91,83 86 89 99,83 86 92 93,83 86 92 95,83 86 92 96,83 86 92 97,83 86 92 99,85 87 89 91,85 87 89 99,86 83 85 87,86 83 86 80,86 83 86 83,86 83 86 86,86 83 86 89,86 83 86 90,86 83 86 92,86 86 83 85,86 86 83 86,86 86 86 80,86 86 86 83,86 86 86 86,86 86 86 89,86 86 86 90,86 86 86 92,86 86 89 91,86 86 89 99,86 86 92 93,86 86 92 95,86 86 92 96,86 86 92 97,86 86 92 99,86 89 91 100,86 89 99 100,86 92 95 100,86 92 96 95,86 92 97 99,86 92 99 100,87 89 91 100,87 89 99 100,92 96 95 100,92 97 99 100</t>
+  </si>
+  <si>
+    <t>1 2,1 3,1 4,1 7,1 8,1 9,103 100,103 80,103 83,103 85,103 86,103 87,103 89,103 90,103 91,103 92,103 93,103 95,103 96,103 97,103 99,104 107,104 108,104 113,104 114,104 116,104 117,104 118,104 119,104 121,104 122,104 124,104 125,104 127,104 128,104 129,104 131,104 132,106 108,106 113,106 114,106 116,106 117,106 118,106 119,106 121,106 122,106 124,106 125,106 127,106 128,106 129,106 131,106 132,107 108,107 113,107 114,107 116,107 117,107 118,107 119,107 121,107 122,107 124,107 125,107 127,107 128,107 129,107 131,107 132,108 113,108 114,108 116,108 117,108 118,108 119,108 121,108 122,108 124,108 125,108 127,108 128,108 129,108 131,108 132,11 12,11 20,113 114,116 113,116 114,116 116,116 117,116 118,116 119,116 121,116 122,116 124,116 125,116 127,116 128,116 129,116 131,116 132,117 113,117 114,117 116,117 117,117 118,117 119,117 121,117 122,117 124,117 125,117 127,117 128,117 129,117 131,117 132,118 119,12 20,121 113,121 114,121 116,121 117,121 118,121 119,121 121,121 122,121 124,121 125,121 127,121 128,121 129,121 131,121 132,122 113,122 114,122 116,122 117,122 118,122 119,122 121,122 122,122 124,122 125,122 127,122 128,122 129,122 131,122 132,124 113,124 114,124 116,124 117,124 118,124 119,124 121,124 122,124 124,124 125,124 127,124 128,124 129,124 131,124 132,125 113,125 114,125 116,125 117,125 118,125 119,125 121,125 122,125 124,125 125,125 127,125 128,125 129,125 131,125 132,127 113,127 114,127 116,127 117,127 118,127 119,127 121,127 122,127 124,127 125,127 127,127 128,127 129,127 131,127 132,128 113,128 114,128 116,128 117,128 118,128 119,128 121,128 122,128 124,128 125,128 127,128 128,128 129,128 131,128 132,13 14,13 17,13 18,13 20,13 35,13 36,131 113,131 114,131 116,131 117,131 118,131 119,131 121,131 122,131 124,131 125,131 127,131 128,131 129,131 131,131 132,134 140,134 147,134 148,135 136,135 137,136 137,14 17,14 18,14 20,14 35,14 36,140 147,140 148,141 143,141 144,141 145,143 143,143 144,143 145,144 143,144 144,144 145,145 143,145 144,145 145,147 148,149 150,149 151,149 153,149 154,149 156,149 158,149 159,150 151,150 153,150 154,150 156,150 158,150 159,151 153,151 154,151 156,151 158,151 159,153 153,153 154,153 156,153 158,153 159,154 153,154 154,154 156,154 158,154 159,156 153,156 154,156 156,156 158,156 159,157 153,157 154,157 156,157 158,157 159,158 153,158 154,158 156,158 158,158 159,164 167,164 168,165 167,165 168,167 168,17 18,17 20,189 190,199 201,199 205,199 209,199 210,2 3,2 7,2 9,217 223,224 226,225 226,228 229,230 233,239 241,242 246,242 247,246 247,25 27,25 30,25 31,25 32,25 33,25 34,250 253,250 255,256 259,260 263,260 265,263 265,266 268,269 271,27 30,27 31,27 32,27 33,27 34,28 30,28 31,28 32,28 33,28 34,29 31,29 32,29 33,29 34,3 7,3 9,30 31,30 32,30 33,30 34,32 33,38 39,4 7,4 9,46 46,46 47,46 54,46 56,46 57,46 59,46 60,46 62,46 63,46 65,46 66,46 67,46 68,46 69,47 46,47 47,47 54,47 56,47 57,47 59,47 60,47 62,47 63,47 65,47 66,47 67,47 68,47 69,5 6,5 9,51 46,51 47,51 52,51 54,51 56,51 57,51 59,51 60,51 61,51 62,51 63,51 65,51 66,51 67,51 68,51 69,52 46,52 47,52 54,52 56,52 57,52 59,52 60,52 61,52 62,52 63,52 65,52 66,52 67,52 68,52 69,53 46,53 47,53 54,53 56,53 57,53 59,53 60,53 62,53 63,53 65,53 66,53 67,53 68,53 69,54 46,54 47,54 54,54 56,54 57,54 59,54 60,54 62,54 63,54 65,54 66,54 67,54 68,54 69,56 46,56 47,56 54,56 56,56 57,56 59,56 60,56 62,56 63,56 65,56 66,56 67,56 68,56 69,57 46,57 47,57 54,57 56,57 57,57 59,57 60,57 62,57 63,57 65,57 66,57 67,57 68,57 69,58 46,58 47,58 54,58 56,58 57,58 59,58 60,58 61,58 62,58 63,58 65,58 66,58 67,58 68,58 69,59 46,59 47,59 54,59 56,59 57,59 59,59 60,59 62,59 63,59 65,59 66,59 67,59 68,59 69,60 46,60 47,60 54,60 56,60 57,60 59,60 60,60 62,60 63,60 65,60 66,60 67,60 68,60 69,61 46,61 47,61 54,61 56,61 57,61 59,61 60,61 62,61 63,61 65,61 66,61 67,61 68,61 69,62 46,62 47,62 54,62 56,62 57,62 59,62 60,62 62,62 63,62 65,62 66,62 67,62 68,62 69,63 46,63 47,63 54,63 56,63 57,63 59,63 60,63 62,63 63,63 65,63 66,63 67,63 68,63 69,65 66,67 46,67 47,67 54,67 56,67 57,67 59,67 60,67 62,67 63,67 65,67 66,67 67,67 68,67 69,68 69,7 9,71 100,71 72,71 80,71 83,71 85,71 86,71 87,71 89,71 90,71 91,71 92,71 93,71 95,71 96,71 97,71 99,73 100,73 80,73 85,73 87,73 89,73 91,73 97,73 99,74 100,74 75,74 80,74 83,74 85,74 86,74 87,74 89,74 90,74 91,74 92,74 93,74 95,74 96,74 97,74 99,75 100,75 80,75 83,75 85,75 86,75 87,75 89,75 90,75 91,75 92,75 93,75 95,75 96,75 97,75 99,8 9,82 100,82 80,82 83,82 85,82 86,82 87,82 89,82 90,82 91,82 92,82 93,82 95,82 96,82 97,82 99,83 100,83 80,83 83,83 85,83 86,83 87,83 89,83 90,83 91,83 92,83 93,83 95,83 96,83 97,83 99,85 100,85 80,85 87,85 89,85 91,85 99,86 100,86 80,86 83,86 85,86 86,86 87,86 89,86 90,86 91,86 92,86 93,86 95,86 96,86 97,86 99,87 100,87 80,87 89,87 91,87 99,89 100,89 91,89 99,91 100,92 100,92 93,92 95,92 96,92 97,92 99,95 100,96 100,96 95,97 100,97 99,99 100</t>
   </si>
 </sst>
 </file>
@@ -375,7 +540,103 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -876,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F969A-AF06-4B88-BDEC-BD9AE21F1F8A}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,34 +1600,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G23 G25:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G23">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1377,17 +1638,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD5F34A-C32F-4F9E-A4EF-99404DBA2DE9}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="200.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="87.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="47.28515625" style="4" customWidth="1"/>
@@ -1418,8 +1679,407 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G17 G23:G1048576">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"BUG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19 G22">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"BUG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"BUG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"BUG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
@@ -1428,6 +2088,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="632" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="632" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Next" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="179">
   <si>
     <t>Index</t>
   </si>
@@ -436,6 +436,129 @@
   </si>
   <si>
     <t>1 2,1 3,1 4,1 7,1 8,1 9,103 100,103 80,103 83,103 85,103 86,103 87,103 89,103 90,103 91,103 92,103 93,103 95,103 96,103 97,103 99,104 107,104 108,104 113,104 114,104 116,104 117,104 118,104 119,104 121,104 122,104 124,104 125,104 127,104 128,104 129,104 131,104 132,106 108,106 113,106 114,106 116,106 117,106 118,106 119,106 121,106 122,106 124,106 125,106 127,106 128,106 129,106 131,106 132,107 108,107 113,107 114,107 116,107 117,107 118,107 119,107 121,107 122,107 124,107 125,107 127,107 128,107 129,107 131,107 132,108 113,108 114,108 116,108 117,108 118,108 119,108 121,108 122,108 124,108 125,108 127,108 128,108 129,108 131,108 132,11 12,11 20,113 114,116 113,116 114,116 116,116 117,116 118,116 119,116 121,116 122,116 124,116 125,116 127,116 128,116 129,116 131,116 132,117 113,117 114,117 116,117 117,117 118,117 119,117 121,117 122,117 124,117 125,117 127,117 128,117 129,117 131,117 132,118 119,12 20,121 113,121 114,121 116,121 117,121 118,121 119,121 121,121 122,121 124,121 125,121 127,121 128,121 129,121 131,121 132,122 113,122 114,122 116,122 117,122 118,122 119,122 121,122 122,122 124,122 125,122 127,122 128,122 129,122 131,122 132,124 113,124 114,124 116,124 117,124 118,124 119,124 121,124 122,124 124,124 125,124 127,124 128,124 129,124 131,124 132,125 113,125 114,125 116,125 117,125 118,125 119,125 121,125 122,125 124,125 125,125 127,125 128,125 129,125 131,125 132,127 113,127 114,127 116,127 117,127 118,127 119,127 121,127 122,127 124,127 125,127 127,127 128,127 129,127 131,127 132,128 113,128 114,128 116,128 117,128 118,128 119,128 121,128 122,128 124,128 125,128 127,128 128,128 129,128 131,128 132,13 14,13 17,13 18,13 20,13 35,13 36,131 113,131 114,131 116,131 117,131 118,131 119,131 121,131 122,131 124,131 125,131 127,131 128,131 129,131 131,131 132,134 140,134 147,134 148,135 136,135 137,136 137,14 17,14 18,14 20,14 35,14 36,140 147,140 148,141 143,141 144,141 145,143 143,143 144,143 145,144 143,144 144,144 145,145 143,145 144,145 145,147 148,149 150,149 151,149 153,149 154,149 156,149 158,149 159,150 151,150 153,150 154,150 156,150 158,150 159,151 153,151 154,151 156,151 158,151 159,153 153,153 154,153 156,153 158,153 159,154 153,154 154,154 156,154 158,154 159,156 153,156 154,156 156,156 158,156 159,157 153,157 154,157 156,157 158,157 159,158 153,158 154,158 156,158 158,158 159,164 167,164 168,165 167,165 168,167 168,17 18,17 20,189 190,199 201,199 205,199 209,199 210,2 3,2 7,2 9,217 223,224 226,225 226,228 229,230 233,239 241,242 246,242 247,246 247,25 27,25 30,25 31,25 32,25 33,25 34,250 253,250 255,256 259,260 263,260 265,263 265,266 268,269 271,27 30,27 31,27 32,27 33,27 34,28 30,28 31,28 32,28 33,28 34,29 31,29 32,29 33,29 34,3 7,3 9,30 31,30 32,30 33,30 34,32 33,38 39,4 7,4 9,46 46,46 47,46 54,46 56,46 57,46 59,46 60,46 62,46 63,46 65,46 66,46 67,46 68,46 69,47 46,47 47,47 54,47 56,47 57,47 59,47 60,47 62,47 63,47 65,47 66,47 67,47 68,47 69,5 6,5 9,51 46,51 47,51 52,51 54,51 56,51 57,51 59,51 60,51 61,51 62,51 63,51 65,51 66,51 67,51 68,51 69,52 46,52 47,52 54,52 56,52 57,52 59,52 60,52 61,52 62,52 63,52 65,52 66,52 67,52 68,52 69,53 46,53 47,53 54,53 56,53 57,53 59,53 60,53 62,53 63,53 65,53 66,53 67,53 68,53 69,54 46,54 47,54 54,54 56,54 57,54 59,54 60,54 62,54 63,54 65,54 66,54 67,54 68,54 69,56 46,56 47,56 54,56 56,56 57,56 59,56 60,56 62,56 63,56 65,56 66,56 67,56 68,56 69,57 46,57 47,57 54,57 56,57 57,57 59,57 60,57 62,57 63,57 65,57 66,57 67,57 68,57 69,58 46,58 47,58 54,58 56,58 57,58 59,58 60,58 61,58 62,58 63,58 65,58 66,58 67,58 68,58 69,59 46,59 47,59 54,59 56,59 57,59 59,59 60,59 62,59 63,59 65,59 66,59 67,59 68,59 69,60 46,60 47,60 54,60 56,60 57,60 59,60 60,60 62,60 63,60 65,60 66,60 67,60 68,60 69,61 46,61 47,61 54,61 56,61 57,61 59,61 60,61 62,61 63,61 65,61 66,61 67,61 68,61 69,62 46,62 47,62 54,62 56,62 57,62 59,62 60,62 62,62 63,62 65,62 66,62 67,62 68,62 69,63 46,63 47,63 54,63 56,63 57,63 59,63 60,63 62,63 63,63 65,63 66,63 67,63 68,63 69,65 66,67 46,67 47,67 54,67 56,67 57,67 59,67 60,67 62,67 63,67 65,67 66,67 67,67 68,67 69,68 69,7 9,71 100,71 72,71 80,71 83,71 85,71 86,71 87,71 89,71 90,71 91,71 92,71 93,71 95,71 96,71 97,71 99,73 100,73 80,73 85,73 87,73 89,73 91,73 97,73 99,74 100,74 75,74 80,74 83,74 85,74 86,74 87,74 89,74 90,74 91,74 92,74 93,74 95,74 96,74 97,74 99,75 100,75 80,75 83,75 85,75 86,75 87,75 89,75 90,75 91,75 92,75 93,75 95,75 96,75 97,75 99,8 9,82 100,82 80,82 83,82 85,82 86,82 87,82 89,82 90,82 91,82 92,82 93,82 95,82 96,82 97,82 99,83 100,83 80,83 83,83 85,83 86,83 87,83 89,83 90,83 91,83 92,83 93,83 95,83 96,83 97,83 99,85 100,85 80,85 87,85 89,85 91,85 99,86 100,86 80,86 83,86 85,86 86,86 87,86 89,86 90,86 91,86 92,86 93,86 95,86 96,86 97,86 99,87 100,87 80,87 89,87 91,87 99,89 100,89 91,89 99,91 100,92 100,92 93,92 95,92 96,92 97,92 99,95 100,96 100,96 95,97 100,97 99,99 100</t>
+  </si>
+  <si>
+    <t>stmt s1,s2,s3; variable v1;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s1,s2) and Follows(s2,s3)</t>
+  </si>
+  <si>
+    <t>4 clauses</t>
+  </si>
+  <si>
+    <t>stmt s1,s2,s3,s4; variable v1;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s1,s2) and Follows(s3,s4)</t>
+  </si>
+  <si>
+    <t>3-1 clauses</t>
+  </si>
+  <si>
+    <t>stmt s1,s2,s3,s4; variable v1,v2;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Uses(s1,v1) and Modifies(s2,v2) and Parent(s1,s3) and Follows(s2,s4)</t>
+  </si>
+  <si>
+    <t>2-2 clauses</t>
+  </si>
+  <si>
+    <t>stmt s1,s2,s3,s4,s5; variable v1;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s2,s3) and Follows(s4,s5)</t>
+  </si>
+  <si>
+    <t>2-1-1 clauses</t>
+  </si>
+  <si>
+    <t>stmt s1,s2,s3,s4,s5,s6; variable v1,v2;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Uses(s1,v1) and Modifies(s2,v2) and Parent(s3,s4) and Follows(s5,s6)</t>
+  </si>
+  <si>
+    <t>1-1-1-1 clauses</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2&gt; such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s1,s2) and Follows(s3,s4)</t>
+  </si>
+  <si>
+    <t>3-1 clauses 2 tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3&gt; such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s1,s2) and Follows(s3,s4)</t>
+  </si>
+  <si>
+    <t>3-1 clauses 3 tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3,s4&gt; such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s1,s2) and Follows(s3,s4)</t>
+  </si>
+  <si>
+    <t>3-1 clauses 4 tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3,s4,v1&gt; such that Uses(s1,v1) and Modifies(s1,v1) and Parent(s1,s2) and Follows(s3,s4)</t>
+  </si>
+  <si>
+    <t>3-1 clauses 5 tuple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt s1,s2,s3,s4,s5; </t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6)</t>
+  </si>
+  <si>
+    <t>single tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6)</t>
+  </si>
+  <si>
+    <t>double tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6)</t>
+  </si>
+  <si>
+    <t>triple tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3,s4&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6)</t>
+  </si>
+  <si>
+    <t>four tuple</t>
+  </si>
+  <si>
+    <t>stmt s1,s2,s3,s4,s5,s6; variable v1;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3,s4&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3,s4,s5&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
+  </si>
+  <si>
+    <t>five tuple</t>
+  </si>
+  <si>
+    <t>Select &lt;s1,s2,s3,s4,s5,s6&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
+  </si>
+  <si>
+    <t>six tuple</t>
   </si>
 </sst>
 </file>
@@ -507,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -534,6 +657,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD5F34A-C32F-4F9E-A4EF-99404DBA2DE9}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2094,12 +2224,321 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E14A3-23C2-45E6-9AB0-F9FD5DC183C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="632" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -10,7 +10,6 @@
     <sheet name="Next" sheetId="10" r:id="rId1"/>
     <sheet name="Affects" sheetId="7" r:id="rId2"/>
     <sheet name="Mixed" sheetId="16" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
   <si>
     <t>Index</t>
   </si>
@@ -201,9 +200,6 @@
     <t>Select s3 such that Next*(s1, s2) and Next*(s2, s3) and Next*(s3, s4)</t>
   </si>
   <si>
-    <t>Select s4 such that Next*(s1, s2) and Next*(s2, s3) and Next*(s3, s4) and Next*(s4,s5)</t>
-  </si>
-  <si>
     <t>1NextStar</t>
   </si>
   <si>
@@ -213,9 +209,6 @@
     <t>3NextStar</t>
   </si>
   <si>
-    <t>4NextStar</t>
-  </si>
-  <si>
     <t>Select &lt;s1, s2, s3, s4, s5&gt; such that Next(s1,s2) and Next(s2, s3) and Next(s3, s4) and Next(s4, s5)</t>
   </si>
   <si>
@@ -306,36 +299,6 @@
     <t>assign a1,a2,a3,a4,a5,a6,a7,a8,a9,a10,a11;</t>
   </si>
   <si>
-    <t>1Assign</t>
-  </si>
-  <si>
-    <t>2Assign</t>
-  </si>
-  <si>
-    <t>3Assign</t>
-  </si>
-  <si>
-    <t>4Assign</t>
-  </si>
-  <si>
-    <t>5Assign</t>
-  </si>
-  <si>
-    <t>6Assign</t>
-  </si>
-  <si>
-    <t>7Assign</t>
-  </si>
-  <si>
-    <t>8Assign</t>
-  </si>
-  <si>
-    <t>9Assign</t>
-  </si>
-  <si>
-    <t>10Assign</t>
-  </si>
-  <si>
     <t>Select &lt;a1, a2&gt; such that Affects(a1, a2)</t>
   </si>
   <si>
@@ -507,12 +470,6 @@
     <t>3-1 clauses 5 tuple</t>
   </si>
   <si>
-    <t xml:space="preserve">stmt s1,s2,s3,s4,s5; </t>
-  </si>
-  <si>
-    <t>Select s1 such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6)</t>
-  </si>
-  <si>
     <t>single tuple</t>
   </si>
   <si>
@@ -549,16 +506,127 @@
     <t>Select &lt;s1,s2,s3,s4&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
   </si>
   <si>
-    <t>Select &lt;s1,s2,s3,s4,s5&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
-  </si>
-  <si>
-    <t>five tuple</t>
-  </si>
-  <si>
-    <t>Select &lt;s1,s2,s3,s4,s5,s6&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6) and Uses(s5,v1) and Modifies(s6,v1)</t>
-  </si>
-  <si>
-    <t>six tuple</t>
+    <t>Select &lt;s1, s2, s3, s4&gt; such that Next*(s1, s2) and Next*(s2, s3) and Next*(s3, s4)</t>
+  </si>
+  <si>
+    <t>Quadruple</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4, a5, a6, a7, a8&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4, a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7,a8)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4, a5, a6, a7, a8, a9&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4, a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7,a8) and Affects(a8,a9)</t>
+  </si>
+  <si>
+    <t>Select &lt;a1, a2, a3, a4, a5, a6, a7, a8, a9&gt; such that Affects(a1,a2) and Affects(a2, a3) and Affects(a3, a4) and Affects(a4, a5) and Affects(a5, a6) and Affects(a6, a7) and Affects(a7,a8) and Affects(a8,a9) and Affects(a9,a10)</t>
+  </si>
+  <si>
+    <t>4AffectsStar</t>
+  </si>
+  <si>
+    <t>5AffectsStar</t>
+  </si>
+  <si>
+    <t>Select &lt;a1,a2,a3,a4,a5&gt; such that Affects*(a1, a2) and Affects*(a2,a3) and Affects*(a3,a4) and Affects*(a4,a5)</t>
+  </si>
+  <si>
+    <t>Select a4 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5)</t>
+  </si>
+  <si>
+    <t>Select a5 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5) and Affects*(a5,a6)</t>
+  </si>
+  <si>
+    <t>Select a6 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5) and Affects*(a5,a6) and Affects*(a6,a7)</t>
+  </si>
+  <si>
+    <t>Select a7 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5) and Affects*(a5,a6) and Affects*(a6,a7) and Affects*(a7,a8)</t>
+  </si>
+  <si>
+    <t>6AffectsStar</t>
+  </si>
+  <si>
+    <t>7AffectsStar</t>
+  </si>
+  <si>
+    <t>8AffectsStar</t>
+  </si>
+  <si>
+    <t>9AffectsStar</t>
+  </si>
+  <si>
+    <t>10AffectsStar</t>
+  </si>
+  <si>
+    <t>Select a8 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5) and Affects*(a5,a6) and Affects*(a6,a7) and Affects*(a7,a8) and Affects*(a8,a9)</t>
+  </si>
+  <si>
+    <t>Select a9 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5) and Affects*(a5,a6) and Affects*(a6,a7) and Affects*(a7,a8) and Affects*(a8,a9) and Affects*(a9,a10)</t>
+  </si>
+  <si>
+    <t>Select a10 such that Affects*(a1, a2) and Affects*(a2, a3) and Affects*(a3, a4) and Affects*(a4, a5) and Affects*(a5,a6) and Affects*(a6,a7) and Affects*(a7,a8) and Affects*(a8,a9) and Affects*(a9,a10) and Affects*(a10,a11)</t>
+  </si>
+  <si>
+    <t>1Affects</t>
+  </si>
+  <si>
+    <t>2Affects</t>
+  </si>
+  <si>
+    <t>3Affects</t>
+  </si>
+  <si>
+    <t>4Affects</t>
+  </si>
+  <si>
+    <t>5Affects</t>
+  </si>
+  <si>
+    <t>6Affects</t>
+  </si>
+  <si>
+    <t>7Affects</t>
+  </si>
+  <si>
+    <t>8Affects</t>
+  </si>
+  <si>
+    <t>9Affects</t>
+  </si>
+  <si>
+    <t>10Affects</t>
+  </si>
+  <si>
+    <t>15, 16, 45, 48, 50, 55, 64, 77, 79, 88, 94, 110, 112, 142, 152, 155, 169, 171, 177, 200, 203</t>
+  </si>
+  <si>
+    <t>15, 16, 45, 48, 49, 50, 55, 64, 76, 77, 78, 79, 84, 88, 94, 109, 110, 111, 112, 126, 142, 152, 155, 169, 171, 173, 175, 177, 179, 200, 203</t>
+  </si>
+  <si>
+    <t>15, 16, 45, 48, 49, 50, 55, 64, 76, 77, 78, 79, 84, 88, 94, 98, 109, 110, 111, 112, 123, 126, 142, 152, 155, 163, 169, 171, 173, 175, 177, 179, 186, 200, 203</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 9, 10, 14, 15, 16, 17, 20, 22, 23, 26, 27, 28, 32, 33, 37, 40, 41, 42, 44, 45, 48, 49, 50, 55, 59, 60, 64, 65, 66, 68, 70, 76, 77, 78, 79, 80, 81, 84, 86, 88, 89, 90, 91, 94, 100, 101, 102, 105, 107, 109, 110, 111, 112, 113, 115, 120, 122, 126, 128, 130, 132, 133, 137, 138, 139, 140, 141, 142, 143, 144, 146, 148, 150, 152, 154, 155, 160, 162, 166, 167, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 185, 188, 191, 193, 194, 200, 202, 203, 205, 206, 207, 208, 211, 212, 215, 216, 217, 220, 221, 222, 223, 224, 231, 232, 235, 238, 240, 243, 245, 248, 252, 254, 258, 260, 261, 264, 265, 267</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 52, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271</t>
+  </si>
+  <si>
+    <t>109 110,110 111,110 122,110 123,110 125,110 126,110 129,110 130,110 131,111 112,112 113,112 114,112 115,112 116,112 117,112 118,112 119,112 120,112 121,126 127,126 128,142 143,142 144,142 145,15 16,15 31,15 32,15 33,15 34,15 35,15 36,15 37,15 38,15 39,152 153,152 154,152 155,152 159,155 156,155 157,155 158,16 17,16 18,16 19,16 20,16 21,16 22,16 23,16 24,16 25,16 26,16 27,16 28,16 29,16 30,169 170,169 171,169 175,171 172,171 173,173 174,175 176,177 178,177 179,177 182,179 180,179 181,200 201,200 202,203 204,203 205,203 206,203 207,203 208,203 209,203 210,203 211,203 212,203 213,45 46,45 47,45 48,48 49,48 55,48 62,48 63,48 64,49 50,50 51,50 52,50 53,50 54,55 56,55 57,55 58,55 59,55 60,55 61,64 65,64 66,64 67,76 77,77 100,77 101,77 102,77 103,77 78,77 88,77 98,78 79,79 80,79 81,79 82,79 83,79 84,79 86,79 87,84 85,88 89,88 90,88 91,88 92,88 93,88 94,88 97,94 95,94 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stmt s1,s2,s3,s4,s5,s6; </t>
+  </si>
+  <si>
+    <t>Select &lt;s1&gt; such that Follows*(s1,s2) and Parent*(s2,s3) and Next*(s4,s5) and Affects*(s5,s6)</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 44, 46, 47, 49, 55, 62, 63, 71, 72, 73, 74, 75, 78, 83, 88, 92, 93, 104, 105, 106, 107, 108, 122, 123, 125, 134, 135, 136, 137, 138, 139, 140, 141, 149, 150, 151, 152, 153, 154, 160, 161, 162, 169, 170, 171, 172, 178, 183, 184, 185, 197, 198, 199, 200</t>
+  </si>
+  <si>
+    <t>1 15,10 15,104 109,105 109,106 109,107 109,108 109,11 15,12 15,122 123,122 126,123 126,125 126,13 15,134 142,135 142,136 142,137 142,138 142,139 142,14 15,140 142,141 142,149 152,149 163,150 152,150 163,151 152,151 163,152 163,153 155,154 155,160 163,161 163,162 163,169 177,170 171,170 175,171 175,172 173,178 179,183 186,184 186,185 186,197 200,197 203,198 200,198 203,199 200,199 203,2 15,200 203,3 15,4 15,44 45,46 48,47 48,49 55,49 64,5 15,55 64,6 15,62 64,63 64,7 15,71 76,72 76,73 76,74 76,75 76,78 88,78 98,8 15,83 84,88 98,9 15,92 94,93 94</t>
+  </si>
+  <si>
+    <t>1 15 16,1 15 17,1 15 18,1 15 19,1 15 20,1 15 21,1 15 22,1 15 23,1 15 24,1 15 25,1 15 26,1 15 27,1 15 28,1 15 29,1 15 30,1 15 31,1 15 32,1 15 33,1 15 34,1 15 35,1 15 36,1 15 37,1 15 38,1 15 39,10 15 16,10 15 17,10 15 18,10 15 19,10 15 20,10 15 21,10 15 22,10 15 23,10 15 24,10 15 25,10 15 26,10 15 27,10 15 28,10 15 29,10 15 30,10 15 31,10 15 32,10 15 33,10 15 34,10 15 35,10 15 36,10 15 37,10 15 38,10 15 39,104 109 110,104 109 111,104 109 112,104 109 113,104 109 114,104 109 115,104 109 116,104 109 117,104 109 118,104 109 119,104 109 120,104 109 121,104 109 122,104 109 123,104 109 124,104 109 125,104 109 126,104 109 127,104 109 128,104 109 129,104 109 130,104 109 131,105 109 110,105 109 111,105 109 112,105 109 113,105 109 114,105 109 115,105 109 116,105 109 117,105 109 118,105 109 119,105 109 120,105 109 121,105 109 122,105 109 123,105 109 124,105 109 125,105 109 126,105 109 127,105 109 128,105 109 129,105 109 130,105 109 131,106 109 110,106 109 111,106 109 112,106 109 113,106 109 114,106 109 115,106 109 116,106 109 117,106 109 118,106 109 119,106 109 120,106 109 121,106 109 122,106 109 123,106 109 124,106 109 125,106 109 126,106 109 127,106 109 128,106 109 129,106 109 130,106 109 131,107 109 110,107 109 111,107 109 112,107 109 113,107 109 114,107 109 115,107 109 116,107 109 117,107 109 118,107 109 119,107 109 120,107 109 121,107 109 122,107 109 123,107 109 124,107 109 125,107 109 126,107 109 127,107 109 128,107 109 129,107 109 130,107 109 131,108 109 110,108 109 111,108 109 112,108 109 113,108 109 114,108 109 115,108 109 116,108 109 117,108 109 118,108 109 119,108 109 120,108 109 121,108 109 122,108 109 123,108 109 124,108 109 125,108 109 126,108 109 127,108 109 128,108 109 129,108 109 130,108 109 131,11 15 16,11 15 17,11 15 18,11 15 19,11 15 20,11 15 21,11 15 22,11 15 23,11 15 24,11 15 25,11 15 26,11 15 27,11 15 28,11 15 29,11 15 30,11 15 31,11 15 32,11 15 33,11 15 34,11 15 35,11 15 36,11 15 37,11 15 38,11 15 39,12 15 16,12 15 17,12 15 18,12 15 19,12 15 20,12 15 21,12 15 22,12 15 23,12 15 24,12 15 25,12 15 26,12 15 27,12 15 28,12 15 29,12 15 30,12 15 31,12 15 32,12 15 33,12 15 34,12 15 35,12 15 36,12 15 37,12 15 38,12 15 39,122 123 124,122 126 127,122 126 128,123 126 127,123 126 128,125 126 127,125 126 128,13 15 16,13 15 17,13 15 18,13 15 19,13 15 20,13 15 21,13 15 22,13 15 23,13 15 24,13 15 25,13 15 26,13 15 27,13 15 28,13 15 29,13 15 30,13 15 31,13 15 32,13 15 33,13 15 34,13 15 35,13 15 36,13 15 37,13 15 38,13 15 39,134 142 143,134 142 144,134 142 145,135 142 143,135 142 144,135 142 145,136 142 143,136 142 144,136 142 145,137 142 143,137 142 144,137 142 145,138 142 143,138 142 144,138 142 145,139 142 143,139 142 144,139 142 145,14 15 16,14 15 17,14 15 18,14 15 19,14 15 20,14 15 21,14 15 22,14 15 23,14 15 24,14 15 25,14 15 26,14 15 27,14 15 28,14 15 29,14 15 30,14 15 31,14 15 32,14 15 33,14 15 34,14 15 35,14 15 36,14 15 37,14 15 38,14 15 39,140 142 143,140 142 144,140 142 145,141 142 143,141 142 144,141 142 145,149 152 153,149 152 154,149 152 155,149 152 156,149 152 157,149 152 158,149 152 159,149 163 164,149 163 165,150 152 153,150 152 154,150 152 155,150 152 156,150 152 157,150 152 158,150 152 159,150 163 164,150 163 165,151 152 153,151 152 154,151 152 155,151 152 156,151 152 157,151 152 158,151 152 159,151 163 164,151 163 165,152 163 164,152 163 165,153 155 156,153 155 157,153 155 158,154 155 156,154 155 157,154 155 158,160 163 164,160 163 165,161 163 164,161 163 165,162 163 164,162 163 165,169 177 178,169 177 179,169 177 180,169 177 181,169 177 182,170 171 172,170 171 173,170 171 174,170 175 176,171 175 176,172 173 174,178 179 180,178 179 181,183 186 187,184 186 187,185 186 187,197 200 201,197 200 202,197 203 204,197 203 205,197 203 206,197 203 207,197 203 208,197 203 209,197 203 210,197 203 211,197 203 212,197 203 213,198 200 201,198 200 202,198 203 204,198 203 205,198 203 206,198 203 207,198 203 208,198 203 209,198 203 210,198 203 211,198 203 212,198 203 213,199 200 201,199 200 202,199 203 204,199 203 205,199 203 206,199 203 207,199 203 208,199 203 209,199 203 210,199 203 211,199 203 212,199 203 213,2 15 16,2 15 17,2 15 18,2 15 19,2 15 20,2 15 21,2 15 22,2 15 23,2 15 24,2 15 25,2 15 26,2 15 27,2 15 28,2 15 29,2 15 30,2 15 31,2 15 32,2 15 33,2 15 34,2 15 35,2 15 36,2 15 37,2 15 38,2 15 39,200 203 204,200 203 205,200 203 206,200 203 207,200 203 208,200 203 209,200 203 210,200 203 211,200 203 212,200 203 213,3 15 16,3 15 17,3 15 18,3 15 19,3 15 20,3 15 21,3 15 22,3 15 23,3 15 24,3 15 25,3 15 26,3 15 27,3 15 28,3 15 29,3 15 30,3 15 31,3 15 32,3 15 33,3 15 34,3 15 35,3 15 36,3 15 37,3 15 38,3 15 39,4 15 16,4 15 17,4 15 18,4 15 19,4 15 20,4 15 21,4 15 22,4 15 23,4 15 24,4 15 25,4 15 26,4 15 27,4 15 28,4 15 29,4 15 30,4 15 31,4 15 32,4 15 33,4 15 34,4 15 35,4 15 36,4 15 37,4 15 38,4 15 39,44 45 46,44 45 47,44 45 48,44 45 49,44 45 50,44 45 51,44 45 52,44 45 53,44 45 54,44 45 55,44 45 56,44 45 57,44 45 58,44 45 59,44 45 60,44 45 61,44 45 62,44 45 63,44 45 64,44 45 65,44 45 66,44 45 67,46 48 49,46 48 50,46 48 51,46 48 52,46 48 53,46 48 54,46 48 55,46 48 56,46 48 57,46 48 58,46 48 59,46 48 60,46 48 61,46 48 62,46 48 63,46 48 64,46 48 65,46 48 66,46 48 67,47 48 49,47 48 50,47 48 51,47 48 52,47 48 53,47 48 54,47 48 55,47 48 56,47 48 57,47 48 58,47 48 59,47 48 60,47 48 61,47 48 62,47 48 63,47 48 64,47 48 65,47 48 66,47 48 67,49 55 56,49 55 57,49 55 58,49 55 59,49 55 60,49 55 61,49 64 65,49 64 66,49 64 67,5 15 16,5 15 17,5 15 18,5 15 19,5 15 20,5 15 21,5 15 22,5 15 23,5 15 24,5 15 25,5 15 26,5 15 27,5 15 28,5 15 29,5 15 30,5 15 31,5 15 32,5 15 33,5 15 34,5 15 35,5 15 36,5 15 37,5 15 38,5 15 39,55 64 65,55 64 66,55 64 67,6 15 16,6 15 17,6 15 18,6 15 19,6 15 20,6 15 21,6 15 22,6 15 23,6 15 24,6 15 25,6 15 26,6 15 27,6 15 28,6 15 29,6 15 30,6 15 31,6 15 32,6 15 33,6 15 34,6 15 35,6 15 36,6 15 37,6 15 38,6 15 39,62 64 65,62 64 66,62 64 67,63 64 65,63 64 66,63 64 67,7 15 16,7 15 17,7 15 18,7 15 19,7 15 20,7 15 21,7 15 22,7 15 23,7 15 24,7 15 25,7 15 26,7 15 27,7 15 28,7 15 29,7 15 30,7 15 31,7 15 32,7 15 33,7 15 34,7 15 35,7 15 36,7 15 37,7 15 38,7 15 39,71 76 100,71 76 101,71 76 102,71 76 103,71 76 77,71 76 78,71 76 79,71 76 80,71 76 81,71 76 82,71 76 83,71 76 84,71 76 85,71 76 86,71 76 87,71 76 88,71 76 89,71 76 90,71 76 91,71 76 92,71 76 93,71 76 94,71 76 95,71 76 96,71 76 97,71 76 98,71 76 99,72 76 100,72 76 101,72 76 102,72 76 103,72 76 77,72 76 78,72 76 79,72 76 80,72 76 81,72 76 82,72 76 83,72 76 84,72 76 85,72 76 86,72 76 87,72 76 88,72 76 89,72 76 90,72 76 91,72 76 92,72 76 93,72 76 94,72 76 95,72 76 96,72 76 97,72 76 98,72 76 99,73 76 100,73 76 101,73 76 102,73 76 103,73 76 77,73 76 78,73 76 79,73 76 80,73 76 81,73 76 82,73 76 83,73 76 84,73 76 85,73 76 86,73 76 87,73 76 88,73 76 89,73 76 90,73 76 91,73 76 92,73 76 93,73 76 94,73 76 95,73 76 96,73 76 97,73 76 98,73 76 99,74 76 100,74 76 101,74 76 102,74 76 103,74 76 77,74 76 78,74 76 79,74 76 80,74 76 81,74 76 82,74 76 83,74 76 84,74 76 85,74 76 86,74 76 87,74 76 88,74 76 89,74 76 90,74 76 91,74 76 92,74 76 93,74 76 94,74 76 95,74 76 96,74 76 97,74 76 98,74 76 99,75 76 100,75 76 101,75 76 102,75 76 103,75 76 77,75 76 78,75 76 79,75 76 80,75 76 81,75 76 82,75 76 83,75 76 84,75 76 85,75 76 86,75 76 87,75 76 88,75 76 89,75 76 90,75 76 91,75 76 92,75 76 93,75 76 94,75 76 95,75 76 96,75 76 97,75 76 98,75 76 99,78 88 89,78 88 90,78 88 91,78 88 92,78 88 93,78 88 94,78 88 95,78 88 96,78 88 97,78 98 99,8 15 16,8 15 17,8 15 18,8 15 19,8 15 20,8 15 21,8 15 22,8 15 23,8 15 24,8 15 25,8 15 26,8 15 27,8 15 28,8 15 29,8 15 30,8 15 31,8 15 32,8 15 33,8 15 34,8 15 35,8 15 36,8 15 37,8 15 38,8 15 39,83 84 85,88 98 99,9 15 16,9 15 17,9 15 18,9 15 19,9 15 20,9 15 21,9 15 22,9 15 23,9 15 24,9 15 25,9 15 26,9 15 27,9 15 28,9 15 29,9 15 30,9 15 31,9 15 32,9 15 33,9 15 34,9 15 35,9 15 36,9 15 37,9 15 38,9 15 39,92 94 95,92 94 96,93 94 95,93 94 96</t>
   </si>
 </sst>
 </file>
@@ -670,151 +738,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -1265,18 +1189,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F969A-AF06-4B88-BDEC-BD9AE21F1F8A}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="200.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="51.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="47.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
@@ -1412,7 +1336,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>38</v>
@@ -1544,7 +1468,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,10 +1479,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>29</v>
@@ -1572,13 +1496,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1589,13 +1513,13 @@
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,13 +1530,13 @@
         <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1623,10 +1547,10 @@
         <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,10 +1561,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,10 +1575,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1671,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1690,7 +1614,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1709,7 +1633,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1722,42 +1646,56 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G23 G25:G1048576">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G23">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1768,17 +1706,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD5F34A-C32F-4F9E-A4EF-99404DBA2DE9}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="200.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="197" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="87.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="47.28515625" style="4" customWidth="1"/>
@@ -1814,16 +1752,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,16 +1769,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,16 +1786,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,16 +1803,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1882,16 +1820,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1899,16 +1837,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,16 +1854,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1933,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,16 +1888,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1967,16 +1905,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,13 +1922,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>26</v>
@@ -2001,13 +1939,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>27</v>
@@ -2018,13 +1956,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>28</v>
@@ -2035,10 +1973,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>29</v>
@@ -2049,13 +1987,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,157 +2001,330 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G17 G23:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="G1:G20 G23:G31 G33:G1048576">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19 G22">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+  <conditionalFormatting sqref="G21:G22 G32">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+  <conditionalFormatting sqref="G21:G22">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"BUG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2224,16 +2335,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E14A3-23C2-45E6-9AB0-F9FD5DC183C0}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" customWidth="1"/>
+    <col min="3" max="3" width="130.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,14 +2370,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,14 +2387,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,14 +2404,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,14 +2421,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,14 +2438,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="E6" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,14 +2455,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2348,14 +2472,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,14 +2487,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,14 +2502,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,14 +2517,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>198</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,14 +2534,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,14 +2551,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,14 +2568,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,14 +2583,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,14 +2598,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,14 +2613,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,129 +2628,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F292773-116D-42F9-87DD-D93485A2F8AA}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"BUG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test16_Stress/ExcelQuery.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
   <si>
     <t>Index</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>1 15 16,1 15 17,1 15 18,1 15 19,1 15 20,1 15 21,1 15 22,1 15 23,1 15 24,1 15 25,1 15 26,1 15 27,1 15 28,1 15 29,1 15 30,1 15 31,1 15 32,1 15 33,1 15 34,1 15 35,1 15 36,1 15 37,1 15 38,1 15 39,10 15 16,10 15 17,10 15 18,10 15 19,10 15 20,10 15 21,10 15 22,10 15 23,10 15 24,10 15 25,10 15 26,10 15 27,10 15 28,10 15 29,10 15 30,10 15 31,10 15 32,10 15 33,10 15 34,10 15 35,10 15 36,10 15 37,10 15 38,10 15 39,104 109 110,104 109 111,104 109 112,104 109 113,104 109 114,104 109 115,104 109 116,104 109 117,104 109 118,104 109 119,104 109 120,104 109 121,104 109 122,104 109 123,104 109 124,104 109 125,104 109 126,104 109 127,104 109 128,104 109 129,104 109 130,104 109 131,105 109 110,105 109 111,105 109 112,105 109 113,105 109 114,105 109 115,105 109 116,105 109 117,105 109 118,105 109 119,105 109 120,105 109 121,105 109 122,105 109 123,105 109 124,105 109 125,105 109 126,105 109 127,105 109 128,105 109 129,105 109 130,105 109 131,106 109 110,106 109 111,106 109 112,106 109 113,106 109 114,106 109 115,106 109 116,106 109 117,106 109 118,106 109 119,106 109 120,106 109 121,106 109 122,106 109 123,106 109 124,106 109 125,106 109 126,106 109 127,106 109 128,106 109 129,106 109 130,106 109 131,107 109 110,107 109 111,107 109 112,107 109 113,107 109 114,107 109 115,107 109 116,107 109 117,107 109 118,107 109 119,107 109 120,107 109 121,107 109 122,107 109 123,107 109 124,107 109 125,107 109 126,107 109 127,107 109 128,107 109 129,107 109 130,107 109 131,108 109 110,108 109 111,108 109 112,108 109 113,108 109 114,108 109 115,108 109 116,108 109 117,108 109 118,108 109 119,108 109 120,108 109 121,108 109 122,108 109 123,108 109 124,108 109 125,108 109 126,108 109 127,108 109 128,108 109 129,108 109 130,108 109 131,11 15 16,11 15 17,11 15 18,11 15 19,11 15 20,11 15 21,11 15 22,11 15 23,11 15 24,11 15 25,11 15 26,11 15 27,11 15 28,11 15 29,11 15 30,11 15 31,11 15 32,11 15 33,11 15 34,11 15 35,11 15 36,11 15 37,11 15 38,11 15 39,12 15 16,12 15 17,12 15 18,12 15 19,12 15 20,12 15 21,12 15 22,12 15 23,12 15 24,12 15 25,12 15 26,12 15 27,12 15 28,12 15 29,12 15 30,12 15 31,12 15 32,12 15 33,12 15 34,12 15 35,12 15 36,12 15 37,12 15 38,12 15 39,122 123 124,122 126 127,122 126 128,123 126 127,123 126 128,125 126 127,125 126 128,13 15 16,13 15 17,13 15 18,13 15 19,13 15 20,13 15 21,13 15 22,13 15 23,13 15 24,13 15 25,13 15 26,13 15 27,13 15 28,13 15 29,13 15 30,13 15 31,13 15 32,13 15 33,13 15 34,13 15 35,13 15 36,13 15 37,13 15 38,13 15 39,134 142 143,134 142 144,134 142 145,135 142 143,135 142 144,135 142 145,136 142 143,136 142 144,136 142 145,137 142 143,137 142 144,137 142 145,138 142 143,138 142 144,138 142 145,139 142 143,139 142 144,139 142 145,14 15 16,14 15 17,14 15 18,14 15 19,14 15 20,14 15 21,14 15 22,14 15 23,14 15 24,14 15 25,14 15 26,14 15 27,14 15 28,14 15 29,14 15 30,14 15 31,14 15 32,14 15 33,14 15 34,14 15 35,14 15 36,14 15 37,14 15 38,14 15 39,140 142 143,140 142 144,140 142 145,141 142 143,141 142 144,141 142 145,149 152 153,149 152 154,149 152 155,149 152 156,149 152 157,149 152 158,149 152 159,149 163 164,149 163 165,150 152 153,150 152 154,150 152 155,150 152 156,150 152 157,150 152 158,150 152 159,150 163 164,150 163 165,151 152 153,151 152 154,151 152 155,151 152 156,151 152 157,151 152 158,151 152 159,151 163 164,151 163 165,152 163 164,152 163 165,153 155 156,153 155 157,153 155 158,154 155 156,154 155 157,154 155 158,160 163 164,160 163 165,161 163 164,161 163 165,162 163 164,162 163 165,169 177 178,169 177 179,169 177 180,169 177 181,169 177 182,170 171 172,170 171 173,170 171 174,170 175 176,171 175 176,172 173 174,178 179 180,178 179 181,183 186 187,184 186 187,185 186 187,197 200 201,197 200 202,197 203 204,197 203 205,197 203 206,197 203 207,197 203 208,197 203 209,197 203 210,197 203 211,197 203 212,197 203 213,198 200 201,198 200 202,198 203 204,198 203 205,198 203 206,198 203 207,198 203 208,198 203 209,198 203 210,198 203 211,198 203 212,198 203 213,199 200 201,199 200 202,199 203 204,199 203 205,199 203 206,199 203 207,199 203 208,199 203 209,199 203 210,199 203 211,199 203 212,199 203 213,2 15 16,2 15 17,2 15 18,2 15 19,2 15 20,2 15 21,2 15 22,2 15 23,2 15 24,2 15 25,2 15 26,2 15 27,2 15 28,2 15 29,2 15 30,2 15 31,2 15 32,2 15 33,2 15 34,2 15 35,2 15 36,2 15 37,2 15 38,2 15 39,200 203 204,200 203 205,200 203 206,200 203 207,200 203 208,200 203 209,200 203 210,200 203 211,200 203 212,200 203 213,3 15 16,3 15 17,3 15 18,3 15 19,3 15 20,3 15 21,3 15 22,3 15 23,3 15 24,3 15 25,3 15 26,3 15 27,3 15 28,3 15 29,3 15 30,3 15 31,3 15 32,3 15 33,3 15 34,3 15 35,3 15 36,3 15 37,3 15 38,3 15 39,4 15 16,4 15 17,4 15 18,4 15 19,4 15 20,4 15 21,4 15 22,4 15 23,4 15 24,4 15 25,4 15 26,4 15 27,4 15 28,4 15 29,4 15 30,4 15 31,4 15 32,4 15 33,4 15 34,4 15 35,4 15 36,4 15 37,4 15 38,4 15 39,44 45 46,44 45 47,44 45 48,44 45 49,44 45 50,44 45 51,44 45 52,44 45 53,44 45 54,44 45 55,44 45 56,44 45 57,44 45 58,44 45 59,44 45 60,44 45 61,44 45 62,44 45 63,44 45 64,44 45 65,44 45 66,44 45 67,46 48 49,46 48 50,46 48 51,46 48 52,46 48 53,46 48 54,46 48 55,46 48 56,46 48 57,46 48 58,46 48 59,46 48 60,46 48 61,46 48 62,46 48 63,46 48 64,46 48 65,46 48 66,46 48 67,47 48 49,47 48 50,47 48 51,47 48 52,47 48 53,47 48 54,47 48 55,47 48 56,47 48 57,47 48 58,47 48 59,47 48 60,47 48 61,47 48 62,47 48 63,47 48 64,47 48 65,47 48 66,47 48 67,49 55 56,49 55 57,49 55 58,49 55 59,49 55 60,49 55 61,49 64 65,49 64 66,49 64 67,5 15 16,5 15 17,5 15 18,5 15 19,5 15 20,5 15 21,5 15 22,5 15 23,5 15 24,5 15 25,5 15 26,5 15 27,5 15 28,5 15 29,5 15 30,5 15 31,5 15 32,5 15 33,5 15 34,5 15 35,5 15 36,5 15 37,5 15 38,5 15 39,55 64 65,55 64 66,55 64 67,6 15 16,6 15 17,6 15 18,6 15 19,6 15 20,6 15 21,6 15 22,6 15 23,6 15 24,6 15 25,6 15 26,6 15 27,6 15 28,6 15 29,6 15 30,6 15 31,6 15 32,6 15 33,6 15 34,6 15 35,6 15 36,6 15 37,6 15 38,6 15 39,62 64 65,62 64 66,62 64 67,63 64 65,63 64 66,63 64 67,7 15 16,7 15 17,7 15 18,7 15 19,7 15 20,7 15 21,7 15 22,7 15 23,7 15 24,7 15 25,7 15 26,7 15 27,7 15 28,7 15 29,7 15 30,7 15 31,7 15 32,7 15 33,7 15 34,7 15 35,7 15 36,7 15 37,7 15 38,7 15 39,71 76 100,71 76 101,71 76 102,71 76 103,71 76 77,71 76 78,71 76 79,71 76 80,71 76 81,71 76 82,71 76 83,71 76 84,71 76 85,71 76 86,71 76 87,71 76 88,71 76 89,71 76 90,71 76 91,71 76 92,71 76 93,71 76 94,71 76 95,71 76 96,71 76 97,71 76 98,71 76 99,72 76 100,72 76 101,72 76 102,72 76 103,72 76 77,72 76 78,72 76 79,72 76 80,72 76 81,72 76 82,72 76 83,72 76 84,72 76 85,72 76 86,72 76 87,72 76 88,72 76 89,72 76 90,72 76 91,72 76 92,72 76 93,72 76 94,72 76 95,72 76 96,72 76 97,72 76 98,72 76 99,73 76 100,73 76 101,73 76 102,73 76 103,73 76 77,73 76 78,73 76 79,73 76 80,73 76 81,73 76 82,73 76 83,73 76 84,73 76 85,73 76 86,73 76 87,73 76 88,73 76 89,73 76 90,73 76 91,73 76 92,73 76 93,73 76 94,73 76 95,73 76 96,73 76 97,73 76 98,73 76 99,74 76 100,74 76 101,74 76 102,74 76 103,74 76 77,74 76 78,74 76 79,74 76 80,74 76 81,74 76 82,74 76 83,74 76 84,74 76 85,74 76 86,74 76 87,74 76 88,74 76 89,74 76 90,74 76 91,74 76 92,74 76 93,74 76 94,74 76 95,74 76 96,74 76 97,74 76 98,74 76 99,75 76 100,75 76 101,75 76 102,75 76 103,75 76 77,75 76 78,75 76 79,75 76 80,75 76 81,75 76 82,75 76 83,75 76 84,75 76 85,75 76 86,75 76 87,75 76 88,75 76 89,75 76 90,75 76 91,75 76 92,75 76 93,75 76 94,75 76 95,75 76 96,75 76 97,75 76 98,75 76 99,78 88 89,78 88 90,78 88 91,78 88 92,78 88 93,78 88 94,78 88 95,78 88 96,78 88 97,78 98 99,8 15 16,8 15 17,8 15 18,8 15 19,8 15 20,8 15 21,8 15 22,8 15 23,8 15 24,8 15 25,8 15 26,8 15 27,8 15 28,8 15 29,8 15 30,8 15 31,8 15 32,8 15 33,8 15 34,8 15 35,8 15 36,8 15 37,8 15 38,8 15 39,83 84 85,88 98 99,9 15 16,9 15 17,9 15 18,9 15 19,9 15 20,9 15 21,9 15 22,9 15 23,9 15 24,9 15 25,9 15 26,9 15 27,9 15 28,9 15 29,9 15 30,9 15 31,9 15 32,9 15 33,9 15 34,9 15 35,9 15 36,9 15 37,9 15 38,9 15 39,92 94 95,92 94 96,93 94 95,93 94 96</t>
+  </si>
+  <si>
+    <t>1,10,104,105,106,107,108,11,12,122,123,125,13,134,135,136,137,138,139,14,140,141,149,150,151,152,153,154,160,161,162,169,170,171,172,178,183,184,185,197,198,199,2,200,3,4,44,46,47,49,5,55,6,62,63,7,71,72,73,74,75,78,8,83,88,9,92,93</t>
   </si>
 </sst>
 </file>
@@ -2337,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937E14A3-23C2-45E6-9AB0-F9FD5DC183C0}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2591,9 @@
       <c r="C15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="E15" s="10" t="s">
         <v>149</v>
       </c>
@@ -2603,7 +2608,9 @@
       <c r="C16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>151</v>
       </c>
@@ -2618,7 +2625,9 @@
       <c r="C17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="E17" s="10" t="s">
         <v>153</v>
       </c>
